--- a/ScrumBoard - National Scholarship Portal.xlsx
+++ b/ScrumBoard - National Scholarship Portal.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="2" r:id="rId1"/>
     <sheet name="Sprint 2" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>User Story</t>
   </si>
@@ -47,78 +47,173 @@
     <t>Done</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Customer Login, Admin Login, Admin Approval[Riya Hoondlani]
+    <t xml:space="preserve">1. Create Student table, Institute table, Schelarship application table.    [Ritam Chakladar]
  </t>
   </si>
   <si>
-    <t xml:space="preserve">1.1 Develop repositories,services,controllers for customer login
-1.2 Develop the angular components for customer login
-1.3 Integrate Front end and back end 
+    <t xml:space="preserve">
+1. Create Student, Create Institute, Get Students, Get Institutes, Create Scholarship application form, View Schemes    [Ritam Chakladar]
 </t>
   </si>
   <si>
-    <t>1. Admin side code for approval backend.   2. Admin side dashboard for approval</t>
-  </si>
-  <si>
-    <t>1. Customer login back end
-2. Customer login front end.  
-3. Entity classes                                                                            
-4. Back end of loginTo do-
-5. AdminLogin backend
-6.AdminLogin front end
-7. Apply checks to login and password fields at both customer and admin end</t>
+    <t>1.1 Develop constrollers for creating students
+1.2 Develop constrollers for creating institutes
+1.3 Develop constrollers for fetching students
+1.4 Develop constrollers for fetching institutes
+1.5 Develop constrollers for creating applications
+1.6 Add error and exception handling to student controller
+1.7 Test student controller using postman 
+1.8 Develop controllers for checking the status of the applications
+1.9 Develop constrollers to get all the available schemes</t>
+  </si>
+  <si>
+    <t>1. Student Register and Login, Institute Register and Login, Ministry login, Officer login. [Ritam Chakladar]</t>
+  </si>
+  <si>
+    <t>1.1 Develop constrollers for student register and login
+1.2 Develop constrollers for institute register and login
+1.3 Develop constrollers for officer login
+1.4 Develop constrollers for ministry login
+1.5 Develop method to create hash of user password to store in database
+1.6 Develop method to generate jwt tokens
+1.7 Test authentication using postman 
+1.8 Develop Scholarship application form UI (angular)
+1.9 Develop Login pages UI for student, institute, ministry and officer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1 Discuss about the database design
+1.2 Create student table
+1.3 Create Institute table
+1.4 Create Scholarship Application table
+1.5 Generate Angular and .NET Core Web Api project
+</t>
+  </si>
+  <si>
+    <t>1.1 Discussed about the database design
+1.2 Created student table
+1.3 Created Institute table
+1.4 Created Scholarship Application table
+1.5 Generated the Angular and .NET Core Web Api project</t>
+  </si>
+  <si>
+    <t>1.1 Developed constrollers for creating students
+1.2 Developed constrollers for creating institutes
+1.3 Developed constrollers for fetching students
+1.4 Developed constrollers for fetching institutes
+1.5 Developed constrollers for creating applications
+1.6 Added error and exception handling to student controller
+1.7 Tested student controller using postman 
+1.8 Developed controllers for checking the status of the applications
+1.9 Developed constrollers to get all the available schemes</t>
   </si>
   <si>
     <t xml:space="preserve">
- 2. Create Account[Shantanu Bisht]
 </t>
   </si>
   <si>
-    <t>2.1 Develop repositories,services,controllers for customer login
- 2.2 Develop the angular components for customer login 
-2.3 Integrate Front end and back end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Back end of registration almost done where i am able to extract and save data in data base. Now inserting all the required fields.
+    <t>1.1 Developed constrollers for student register and login
+1.2 Developed constrollers for institute register and login
+1.3 Developed constrollers for officer login
+1.4 Developed constrollers for ministry login
+1.5 Developed method to create hash of user password to store in database
+1.6 Developed method to generate jwt tokens
+1.7 Tested authentication using postman 
+1.8 Developed Scholarship application form UI (angular)
+1.9 Developed Login pages UI for student, institute, ministry and office</t>
+  </si>
+  <si>
+    <t>1.1 Develop constrollers for student register and login
+1.2 Develop constrollers for institute register and login
+1.3 Develop constrollers for officer login
+1.4 Develop constrollers for ministry login
+1.5 Develop method to create hash of user password to store in database
+1.6 Develop method to generate jwt tokens
+1.7 Test authentication using postman 
+1.8 Develop Scholarship application form UI (angular)
+1.9 Develop Login pages UI for student, institute, ministry and officer (angular) 
+1.10 Implement form validation for student, institute, ministry and officer components (angular)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Implementation form validation for student, institute, ministry and officer components (angular)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Student Register and Login, Institute Register and Login, Ministry login, Officer login. [Ritam Chakladar]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1 Integrate frontend and backend for student register and login
+1.2 Integrate frontend and backend for institute register and login
+1.3 Integrate frontend and backend for officer login
+1.4 Integrate frontend and backend for ministry login
+1.5 Fix bugs present in database seeding while creating ministry and officer data in database
+1.6 Implement form validation for student, institute, ministry and officer components (angular)
+1.7 Develop controllers for approve and reject application in institute
+1.8 Test controllers for approve and reject application in postman
+1.9 Integrate frontend and backend for approve and reject application by institute
+1.10 Fix bugs present in the angular routes
 </t>
   </si>
   <si>
+    <t>1.1 Integrated frontend and backend for student register and login
+1.2 Integrated frontend and backend for institute register and login
+1.3 Integrated frontend and backend for officer login
+1.4 Integrated frontend and backend for ministry login
+1.5 Fixed bugs present in database seeding while creating ministry and officer data in database
+1.6 Implemented form validation for student, institute, ministry and officer components (angular)
+1.7 Developed controllers for approve and reject application in institute
+1.8 Tested controllers for approve and reject application in postman
+1.9 Integrateed frontend and backend for approve and reject application by institute
+1.10 Fixed bugs present in the angular routes</t>
+  </si>
+  <si>
     <t xml:space="preserve">
- 3. Fund Transfer[Pradeep]
+1. Student Register and Login, Institute Register and Login, Ministry login, Officer login, Institute Approve Application (Frontend and Backend) [Ritam Chakladar]
 </t>
   </si>
   <si>
-    <t>3.1 Develop repositories,services,controllers for fund transfer
- 3.2 Develop the angular components for fund transfer
- 3.3 Integrate Front end and back end</t>
-  </si>
-  <si>
-    <t>Completed backend and frontend and integration
-few validations are pending and working on them  
-working on fetching list of accounts and list of beneficiaries</t>
-  </si>
-  <si>
     <t xml:space="preserve">
- 4. Add Beneficiary, Change Password, Forget Password[Neelam Tiwari].</t>
-  </si>
-  <si>
-    <t>Addition of Few more things in FrontEnd, Dashboard, Routing, Redirection</t>
-  </si>
-  <si>
-    <t>Addition of few more validations
-.Addition of Few more things in FrontEnd, Dashboard, Routing, Redirection</t>
-  </si>
-  <si>
-    <t>4.1 Develop repositories,services,controllers for Add beneficiary,Changing Password,ForgetPassword. 
-4.2 Develop the angular components for Adding Add beneficiary,Changing Password,ForgetPassword. 
-4.3 Integrate Front end and back end of respective functionalities.</t>
+1. Error handling frontend, Bug fixes, New constrainsts in controllers, File upload angular.  [Ritam Chakladar]
+</t>
+  </si>
+  <si>
+    <t>1.1 Add error handling in angular
+1.2 Fix existing bugs present in the student and institute constrollers 
+1.3 Add more check conditions while registering students and institutes
+1.4 Test student and institute controllers in postman 
+1.5 Add toast notifications in angular
+1.6 Fix UI styles in frontend 
+1.7 Implement File upload feature in Angular
+1.8 Add FAQs in student dashboard
+1.9 Add status message in applications for student and institute</t>
+  </si>
+  <si>
+    <t>1.1 Added error handling in angular
+1.2 Fixed existing bugs present in the student and institute constrollers 
+1.3 Added more check conditions while registering students and institutes
+1.4 Tested student and institute controllers in postman 
+1.5 Added toast notifications in angular
+1.6 Fixed UI styles in frontend 
+1.7 Implemented File upload feature in Angular
+1.8 Added FAQs in student dashboard
+1.9 Added status message in applications for student and institute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File upload in angular
+</t>
+  </si>
+  <si>
+    <t>File upload in angular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facing problems while uploading files from frontend to backend. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,19 +227,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFF8CBAD"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFB4C6E7"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -198,7 +280,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -241,39 +323,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -365,56 +414,56 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -723,7 +772,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -733,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -757,7 +806,7 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -768,65 +817,63 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="141" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="277.8" customHeight="1">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="20" t="s">
+      <c r="C3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="258" customHeight="1">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="B4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="F4" s="16" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="86.4">
-      <c r="A3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="20"/>
-    </row>
-    <row r="4" spans="1:6" ht="86.4">
-      <c r="A4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="13" t="s">
+    <row r="5" spans="1:6" ht="294.60000000000002" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="19" t="s">
         <v>15</v>
-      </c>
-      <c r="F4" s="20"/>
-    </row>
-    <row r="5" spans="1:6" ht="171.75" customHeight="1">
-      <c r="A5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="21" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="F6" s="9"/>
+      <c r="F6" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -835,20 +882,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.109375" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="1" max="1" width="34.44140625" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="26.33203125" customWidth="1"/>
     <col min="5" max="5" width="25.6640625" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" ht="36" customHeight="1">
@@ -871,13 +918,39 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="210" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="8"/>
+    <row r="2" spans="1:6" ht="370.2" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="310.8" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
